--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value466.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value466.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152998653972751</v>
+        <v>0.8419033288955688</v>
       </c>
       <c r="B1">
-        <v>1.690112751801948</v>
+        <v>1.272386193275452</v>
       </c>
       <c r="C1">
-        <v>3.336940058293462</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.76702477010894</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.7665255897563954</v>
+        <v>1.394285082817078</v>
       </c>
     </row>
   </sheetData>
